--- a/data/trans_orig/IP40-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP40-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C31FC86-61D6-4DFF-A6A4-37B3555CE7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3885204D-7005-47BA-9B6C-E51469EF1760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30249F24-950B-4818-90A9-E523805AFE34}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92472473-C2C4-42AC-B419-C7B0B96D76BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="676">
   <si>
     <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2012 (Tasa respuesta: 97,0%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -88,1996 +88,1984 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,6%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>Con facilidad</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>Con cierta/alguna facilidad</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>Con cierta/alguna dificultad</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>Con dificultad</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>Con mucha dificultad</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>Con facilidad</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>Con cierta/alguna facilidad</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2016 (Tasa respuesta: 98,82%)</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>Con cierta/alguna dificultad</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>Con dificultad</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>Con mucha dificultad</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2023 (Tasa respuesta: 4,74%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>33,08%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2015 (Tasa respuesta: 98,82%)</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2023 (Tasa respuesta: 4,74%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>33,34%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>26,61%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>3,8%</t>
   </si>
 </sst>
 </file>
@@ -2489,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F48585A-55D0-4BCF-A028-4DB8AD4CB199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09958D8B-4E82-4703-879F-EE7B4147302D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2975,10 +2963,10 @@
         <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2987,13 +2975,13 @@
         <v>4168</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -3005,10 +2993,10 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3011,13 @@
         <v>35591</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -3038,13 +3026,13 @@
         <v>22541</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>82</v>
@@ -3053,13 +3041,13 @@
         <v>58133</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3062,13 @@
         <v>52173</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3089,13 +3077,13 @@
         <v>53571</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
@@ -3104,13 +3092,13 @@
         <v>105744</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3113,13 @@
         <v>78581</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -3140,10 +3128,10 @@
         <v>68315</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>102</v>
@@ -3331,13 +3319,13 @@
         <v>951</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3346,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -3361,13 +3349,13 @@
         <v>951</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3370,13 @@
         <v>17715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -3397,13 +3385,13 @@
         <v>19218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -3412,13 +3400,13 @@
         <v>36933</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3421,13 @@
         <v>33101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -3448,13 +3436,13 @@
         <v>33859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -3463,13 +3451,13 @@
         <v>66960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3472,13 @@
         <v>47072</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -3499,13 +3487,13 @@
         <v>42263</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>128</v>
@@ -3514,13 +3502,13 @@
         <v>89335</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3523,13 @@
         <v>29982</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -3550,13 +3538,13 @@
         <v>36685</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -3565,13 +3553,13 @@
         <v>66667</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3574,13 @@
         <v>27131</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -3601,10 +3589,10 @@
         <v>20229</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>171</v>
@@ -3690,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>176</v>
@@ -3708,7 +3696,7 @@
         <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>178</v>
@@ -3723,10 +3711,10 @@
         <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,10 +3813,10 @@
         <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,10 +3900,10 @@
         <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -3924,13 +3912,13 @@
         <v>60924</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3933,13 @@
         <v>25072</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -3960,13 +3948,13 @@
         <v>18405</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -3975,13 +3963,13 @@
         <v>43477</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4037,13 @@
         <v>6383</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -4064,13 +4052,13 @@
         <v>7181</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -4079,13 +4067,13 @@
         <v>13564</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4088,13 @@
         <v>90227</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H33" s="7">
         <v>102</v>
@@ -4115,28 +4103,28 @@
         <v>72697</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M33" s="7">
         <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>162925</v>
+        <v>162924</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4139,13 @@
         <v>158163</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>220</v>
@@ -4166,13 +4154,13 @@
         <v>153184</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>450</v>
@@ -4181,13 +4169,13 @@
         <v>311348</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4190,13 @@
         <v>220114</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>318</v>
@@ -4217,13 +4205,13 @@
         <v>220199</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>630</v>
@@ -4232,13 +4220,13 @@
         <v>440313</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4241,13 @@
         <v>138810</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>206</v>
@@ -4268,13 +4256,13 @@
         <v>141842</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>402</v>
@@ -4283,13 +4271,13 @@
         <v>280652</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4292,13 @@
         <v>114119</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>52</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>143</v>
@@ -4319,13 +4307,13 @@
         <v>98419</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>305</v>
@@ -4334,13 +4322,13 @@
         <v>212538</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,7 +4370,7 @@
         <v>2036</v>
       </c>
       <c r="N38" s="7">
-        <v>1421340</v>
+        <v>1421339</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>70</v>
@@ -4396,7 +4384,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4416,7 +4404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E771F8-B7A0-4E9D-A1E1-F980CC49A15E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5D43DB-15C1-4D34-A4F4-97901F25659B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4433,7 +4421,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4540,13 +4528,13 @@
         <v>1431</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4555,13 +4543,13 @@
         <v>3974</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4570,13 +4558,13 @@
         <v>5405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4579,13 @@
         <v>14947</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4606,13 +4594,13 @@
         <v>13088</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4621,13 +4609,13 @@
         <v>28036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4630,13 @@
         <v>27818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H6" s="7">
         <v>54</v>
@@ -4657,13 +4645,13 @@
         <v>34230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M6" s="7">
         <v>97</v>
@@ -4672,13 +4660,13 @@
         <v>62049</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4681,13 @@
         <v>33289</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -4708,13 +4696,13 @@
         <v>38224</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -4723,13 +4711,13 @@
         <v>71513</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4732,13 @@
         <v>28263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -4759,13 +4747,13 @@
         <v>24490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>308</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -4774,13 +4762,13 @@
         <v>52753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4783,13 @@
         <v>17727</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4810,13 +4798,13 @@
         <v>15736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -4825,13 +4813,13 @@
         <v>33463</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4887,13 @@
         <v>2570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4914,13 +4902,13 @@
         <v>1600</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4929,13 +4917,13 @@
         <v>4170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4938,13 @@
         <v>32182</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -4965,13 +4953,13 @@
         <v>19610</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>328</v>
+        <v>122</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -4980,13 +4968,13 @@
         <v>51792</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4989,13 @@
         <v>50394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5016,13 +5004,13 @@
         <v>49777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -5031,13 +5019,13 @@
         <v>100172</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5040,13 @@
         <v>72470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -5067,13 +5055,13 @@
         <v>60140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>200</v>
@@ -5082,13 +5070,13 @@
         <v>132610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5091,13 @@
         <v>60228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>215</v>
+        <v>359</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H15" s="7">
         <v>72</v>
@@ -5118,13 +5106,13 @@
         <v>45094</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M15" s="7">
         <v>159</v>
@@ -5133,13 +5121,13 @@
         <v>105322</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>148</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5142,13 @@
         <v>38399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5169,13 +5157,13 @@
         <v>30614</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -5184,13 +5172,13 @@
         <v>69013</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5246,13 @@
         <v>2069</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -5273,13 +5261,13 @@
         <v>1898</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -5288,13 +5276,13 @@
         <v>3967</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5297,13 @@
         <v>25330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -5324,13 +5312,13 @@
         <v>20630</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -5339,13 +5327,13 @@
         <v>45960</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5348,13 @@
         <v>38104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -5375,28 +5363,28 @@
         <v>34449</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
       </c>
       <c r="N20" s="7">
-        <v>72552</v>
+        <v>72553</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5399,13 @@
         <v>49926</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -5426,13 +5414,13 @@
         <v>50696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M21" s="7">
         <v>143</v>
@@ -5441,13 +5429,13 @@
         <v>100622</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5450,13 @@
         <v>40227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -5477,13 +5465,13 @@
         <v>36928</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>172</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>56</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -5492,13 +5480,13 @@
         <v>77156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5501,13 @@
         <v>30526</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>403</v>
+        <v>183</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -5528,13 +5516,13 @@
         <v>42368</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>211</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
         <v>105</v>
@@ -5543,13 +5531,13 @@
         <v>72894</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>408</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5579,7 @@
         <v>529</v>
       </c>
       <c r="N24" s="7">
-        <v>373151</v>
+        <v>373152</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -5617,13 +5605,13 @@
         <v>1426</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5632,13 +5620,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5647,13 +5635,13 @@
         <v>1426</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5656,13 @@
         <v>21498</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -5683,13 +5671,13 @@
         <v>18530</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -5698,13 +5686,13 @@
         <v>40027</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5707,13 @@
         <v>32509</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>150</v>
+        <v>429</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
@@ -5734,13 +5722,13 @@
         <v>36742</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>425</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="M27" s="7">
         <v>96</v>
@@ -5749,13 +5737,13 @@
         <v>69252</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5758,13 @@
         <v>44423</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -5785,13 +5773,13 @@
         <v>49915</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -5800,13 +5788,13 @@
         <v>94337</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5809,13 @@
         <v>45234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>443</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>54</v>
@@ -5836,13 +5824,13 @@
         <v>38493</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M29" s="7">
         <v>115</v>
@@ -5851,13 +5839,13 @@
         <v>83726</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>444</v>
+        <v>240</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5860,13 @@
         <v>27597</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -5887,13 +5875,13 @@
         <v>27790</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -5902,13 +5890,13 @@
         <v>55387</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +5964,13 @@
         <v>7496</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -5991,13 +5979,13 @@
         <v>7472</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -6006,13 +5994,13 @@
         <v>14968</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>17</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6015,13 @@
         <v>93956</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="H33" s="7">
         <v>108</v>
@@ -6042,13 +6030,13 @@
         <v>71858</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M33" s="7">
         <v>239</v>
@@ -6057,13 +6045,13 @@
         <v>165815</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6066,13 @@
         <v>148826</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>472</v>
+        <v>362</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H34" s="7">
         <v>231</v>
@@ -6093,13 +6081,13 @@
         <v>155199</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>476</v>
+        <v>33</v>
       </c>
       <c r="M34" s="7">
         <v>448</v>
@@ -6111,10 +6099,10 @@
         <v>109</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>112</v>
+        <v>479</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6117,13 @@
         <v>200109</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H35" s="7">
         <v>299</v>
@@ -6144,13 +6132,13 @@
         <v>198974</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M35" s="7">
         <v>587</v>
@@ -6159,13 +6147,13 @@
         <v>399083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6168,13 @@
         <v>173952</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H36" s="7">
         <v>218</v>
@@ -6195,13 +6183,13 @@
         <v>145005</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M36" s="7">
         <v>462</v>
@@ -6210,13 +6198,13 @@
         <v>318957</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>494</v>
+        <v>388</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>160</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6219,13 @@
         <v>114249</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>496</v>
+        <v>170</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H37" s="7">
         <v>179</v>
@@ -6246,13 +6234,13 @@
         <v>116508</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>306</v>
+        <v>501</v>
       </c>
       <c r="M37" s="7">
         <v>343</v>
@@ -6261,13 +6249,13 @@
         <v>230757</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>501</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,7 +6311,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6343,7 +6331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBBA0B4-BE17-422F-9861-EDCC0C8BF7B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C0941C-988A-4636-82B0-ABEED1D2128D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6360,7 +6348,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6467,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>503</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6482,13 +6470,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6497,13 +6485,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6506,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>503</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6533,13 +6521,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6548,13 +6536,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,10 +6557,10 @@
         <v>1481</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>70</v>
@@ -6584,13 +6572,13 @@
         <v>851</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -6599,13 +6587,13 @@
         <v>2333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>405</v>
+        <v>512</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,13 +6608,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>503</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6635,13 +6623,13 @@
         <v>744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6650,13 +6638,13 @@
         <v>744</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6659,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>503</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6686,13 +6674,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6701,13 +6689,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>503</v>
+        <v>306</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6737,13 +6725,13 @@
         <v>734</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -6752,13 +6740,13 @@
         <v>734</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6814,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6841,13 +6829,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6856,13 +6844,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,13 +6865,13 @@
         <v>2082</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6892,13 +6880,13 @@
         <v>1378</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6907,13 +6895,13 @@
         <v>3460</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6916,13 @@
         <v>2238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>534</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6943,13 +6931,13 @@
         <v>581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -6958,13 +6946,13 @@
         <v>2819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6967,13 @@
         <v>2675</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6994,13 +6982,13 @@
         <v>800</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -7009,13 +6997,13 @@
         <v>3475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7018,13 @@
         <v>1550</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>546</v>
+        <v>420</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7045,13 +7033,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -7060,13 +7048,13 @@
         <v>1550</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7069,13 @@
         <v>616</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7096,13 +7084,13 @@
         <v>1046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7111,13 +7099,13 @@
         <v>1663</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7173,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -7200,13 +7188,13 @@
         <v>565</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>560</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -7215,13 +7203,13 @@
         <v>566</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>562</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7224,13 @@
         <v>1234</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7251,13 +7239,13 @@
         <v>1875</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -7266,13 +7254,13 @@
         <v>3109</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7275,13 @@
         <v>1689</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7302,13 +7290,13 @@
         <v>2774</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -7317,13 +7305,13 @@
         <v>4464</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,13 +7326,13 @@
         <v>630</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7353,13 +7341,13 @@
         <v>573</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -7368,13 +7356,13 @@
         <v>1203</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7377,13 @@
         <v>1331</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7404,13 +7392,13 @@
         <v>1977</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -7419,10 +7407,10 @@
         <v>3309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>589</v>
@@ -7443,7 +7431,7 @@
         <v>590</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>591</v>
@@ -7455,13 +7443,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>592</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -7470,13 +7458,13 @@
         <v>730</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,13 +7532,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7559,13 +7547,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7574,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>595</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,10 +7616,10 @@
         <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7634,13 @@
         <v>6551</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -7661,13 +7649,13 @@
         <v>2007</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -7676,13 +7664,13 @@
         <v>8559</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7685,13 @@
         <v>4863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>489</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>614</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -7712,13 +7700,13 @@
         <v>4458</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -7727,13 +7715,13 @@
         <v>9321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7736,13 @@
         <v>2974</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>220</v>
+        <v>622</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -7763,13 +7751,13 @@
         <v>1885</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -7778,13 +7766,13 @@
         <v>4859</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>625</v>
+        <v>403</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>626</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>49</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7787,13 @@
         <v>1156</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>475</v>
+        <v>629</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -7814,13 +7802,13 @@
         <v>522</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -7829,13 +7817,13 @@
         <v>1678</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>35</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7891,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7918,13 +7906,13 @@
         <v>566</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7933,13 +7921,13 @@
         <v>565</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7942,13 @@
         <v>6333</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>637</v>
+        <v>137</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -7969,13 +7957,13 @@
         <v>4846</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -7987,10 +7975,10 @@
         <v>206</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7993,13 @@
         <v>11960</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -8020,13 +8008,13 @@
         <v>6215</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>650</v>
+        <v>616</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -8035,13 +8023,13 @@
         <v>18174</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8044,13 @@
         <v>8168</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -8071,13 +8059,13 @@
         <v>6574</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -8086,10 +8074,10 @@
         <v>14742</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>661</v>
+        <v>457</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>662</v>
@@ -8125,10 +8113,10 @@
         <v>666</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>668</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -8137,13 +8125,13 @@
         <v>9718</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8146,13 @@
         <v>2502</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>673</v>
+        <v>462</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>674</v>
+        <v>432</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -8173,13 +8161,13 @@
         <v>2302</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -8188,13 +8176,13 @@
         <v>4804</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>533</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,7 +8238,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
